--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\theory_algorithm\lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\term_6\theory_algorithms\lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A293BB9E-0F70-495A-A595-F3F8F414290B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7FFB6-49AA-410E-9BC2-9F696C57DCB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="3780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="16">
   <si>
     <t>Линейный поиск</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>10^7</t>
-  </si>
-  <si>
-    <t>10^8</t>
   </si>
   <si>
     <t>Лучший</t>
@@ -49,9 +46,6 @@
   </si>
   <si>
     <t>Случай</t>
-  </si>
-  <si>
-    <t>t, мс</t>
   </si>
   <si>
     <t>t, тик</t>
@@ -70,6 +64,15 @@
   </si>
   <si>
     <t>Сортировка методом простого выбора</t>
+  </si>
+  <si>
+    <t>10^6</t>
+  </si>
+  <si>
+    <t>10^5</t>
+  </si>
+  <si>
+    <t>10^2</t>
   </si>
 </sst>
 </file>
@@ -105,12 +108,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -213,7 +231,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Лучший случай</c:v>
+            <c:v>Лучший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -229,29 +247,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
+              <c:f>(Лист1!$A$3,Лист1!$A$6,Лист1!$A$9,Лист1!$A$12,Лист1!$A$15)</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$D$3,Лист1!$D$6)</c:f>
+              <c:f>(Лист1!$C$3,Лист1!$C$6,Лист1!$C$9,Лист1!$C$12,Лист1!$C$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -259,7 +295,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9BD9-4A9E-9D9A-22E2BC4F364F}"/>
+              <c16:uniqueId val="{00000003-395E-4E93-A712-A3EF901CB53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -267,7 +303,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Средний случай</c:v>
+            <c:v>Средний</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -281,38 +317,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:marker>
-              <c:symbol val="none"/>
-            </c:marker>
-            <c:bubble3D val="0"/>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$D$4,Лист1!$D$7)</c:f>
+              <c:f>(Лист1!$C$4,Лист1!$C$7,Лист1!$C$10,Лист1!$C$13,Лист1!$C$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>266600</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7188978</c:v>
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7933</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -320,7 +344,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9BD9-4A9E-9D9A-22E2BC4F364F}"/>
+              <c16:uniqueId val="{00000004-395E-4E93-A712-A3EF901CB53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -328,7 +352,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Худший случай</c:v>
+            <c:v>Худший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -342,31 +366,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$D$5,Лист1!$D$8)</c:f>
+              <c:f>(Лист1!$C$5,Лист1!$C$8,Лист1!$C$11,Лист1!$C$14,Лист1!$C$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>706621</c:v>
+                  <c:v>928</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8209131</c:v>
+                  <c:v>1146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35470</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>71640</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,7 +393,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9BD9-4A9E-9D9A-22E2BC4F364F}"/>
+              <c16:uniqueId val="{00000005-395E-4E93-A712-A3EF901CB53F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -773,7 +792,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Лучший случай</c:v>
+            <c:v>Лучший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -789,29 +808,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
+              <c:f>(Лист1!$F$3,Лист1!$F$6,Лист1!$F$9,Лист1!$F$12,Лист1!$F$15)</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10^3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10^5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10^6</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$I$3,Лист1!$I$6)</c:f>
+              <c:f>(Лист1!$H$3,Лист1!$H$6,Лист1!$H$9,Лист1!$H$12,Лист1!$H$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -819,7 +856,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B283-43EC-A480-B9CA7EE0DC5E}"/>
+              <c16:uniqueId val="{00000001-9C1F-4E13-898F-9E7EB72FEEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -827,7 +864,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Средний случай</c:v>
+            <c:v>Средний</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -841,31 +878,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$I$4,Лист1!$I$7)</c:f>
+              <c:f>(Лист1!$H$4,Лист1!$H$7,Лист1!$H$10,Лист1!$H$13,Лист1!$H$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>523090</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2310581</c:v>
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49414</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -873,7 +905,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B283-43EC-A480-B9CA7EE0DC5E}"/>
+              <c16:uniqueId val="{00000002-9C1F-4E13-898F-9E7EB72FEEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -881,7 +913,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Худший случай</c:v>
+            <c:v>Худший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -895,31 +927,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$A$3,Лист1!$A$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$I$5,Лист1!$I$8)</c:f>
+              <c:f>(Лист1!$H$5,Лист1!$H$8,Лист1!$H$11,Лист1!$H$14,Лист1!$H$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>532164</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4238244</c:v>
+                  <c:v>991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -927,7 +954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-B283-43EC-A480-B9CA7EE0DC5E}"/>
+              <c16:uniqueId val="{00000003-9C1F-4E13-898F-9E7EB72FEEFE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,7 +1349,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Лучший случай</c:v>
+            <c:v>Лучший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1338,29 +1365,47 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$K$3,Лист1!$K$6)</c:f>
+              <c:f>(Лист1!$K$3,Лист1!$K$6,Лист1!$K$9,Лист1!$K$12,Лист1!$K$15)</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10^2</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10^3</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>10^4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10^5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$N$3,Лист1!$N$6)</c:f>
+              <c:f>(Лист1!$M$3,Лист1!$M$6,Лист1!$M$9,Лист1!$M$12,Лист1!$M$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>53408</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5978384</c:v>
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>744690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68144433</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1413,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6A92-4A57-9C5C-49D08ABA104A}"/>
+              <c16:uniqueId val="{00000001-51DB-49F7-8F7F-B300DA6E72DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1376,7 +1421,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Средний случай</c:v>
+            <c:v>Средний</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1390,31 +1435,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$K$3,Лист1!$K$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$N$4,Лист1!$N$7)</c:f>
+              <c:f>(Лист1!$M$4,Лист1!$M$7,Лист1!$M$10,Лист1!$M$13,Лист1!$M$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>29055</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2393239</c:v>
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15813</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2099740</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>136593961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,7 +1462,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6A92-4A57-9C5C-49D08ABA104A}"/>
+              <c16:uniqueId val="{00000002-51DB-49F7-8F7F-B300DA6E72DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1430,7 +1470,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Худший случай</c:v>
+            <c:v>Худший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1444,31 +1484,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Лист1!$K$3,Лист1!$K$6)</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>10^3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10^4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$N$5,Лист1!$N$8)</c:f>
+              <c:f>(Лист1!$M$5,Лист1!$M$8,Лист1!$M$11,Лист1!$M$14,Лист1!$M$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>107277</c:v>
+                  <c:v>3984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5428451</c:v>
+                  <c:v>5008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1897569</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>192983040</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,7 +1511,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-6A92-4A57-9C5C-49D08ABA104A}"/>
+              <c16:uniqueId val="{00000003-51DB-49F7-8F7F-B300DA6E72DD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1871,7 +1906,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Лучший случай</c:v>
+            <c:v>Лучший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1887,30 +1922,24 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$P$3,Лист1!$P$6)</c:f>
+              <c:f>(Лист1!$P$12,Лист1!$P$15)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>10^4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^4</c:v>
+                  <c:v>10^5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$S$3,Лист1!$S$6)</c:f>
+              <c:f>(Лист1!$R$12,Лист1!$R$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>12455</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1187924</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1925,7 +1954,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Средний случай</c:v>
+            <c:v>Средний</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1941,30 +1970,24 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$P$3,Лист1!$P$6)</c:f>
+              <c:f>(Лист1!$P$12,Лист1!$P$15)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>10^4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^4</c:v>
+                  <c:v>10^5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$S$4,Лист1!$S$7)</c:f>
+              <c:f>(Лист1!$R$13,Лист1!$R$16)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>13239</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1212821</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1979,7 +2002,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Худший случай</c:v>
+            <c:v>Худший</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1995,30 +2018,24 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>(Лист1!$P$3,Лист1!$P$6)</c:f>
+              <c:f>(Лист1!$P$12,Лист1!$P$15)</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>10^3</c:v>
+                  <c:v>10^4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10^4</c:v>
+                  <c:v>10^5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Лист1!$S$5,Лист1!$S$8)</c:f>
+              <c:f>(Лист1!$R$14,Лист1!$R$17)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>24115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1233889</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4570,15 +4587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12595</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4605,16 +4622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>529772</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>79829</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4322</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181788</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>224972</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>79828</xdr:rowOff>
+      <xdr:colOff>304815</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>181786</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4643,16 +4660,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>319314</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>11446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>14514</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>72570</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>310018</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>11444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4681,16 +4698,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>159657</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72572</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>608574</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>8383</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>464457</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>72571</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>298555</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>8381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4983,372 +5000,573 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="5"/>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="5"/>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="5"/>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="5"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2">
         <v>4</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>30</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="1">
-        <v>5</v>
-      </c>
-      <c r="N3" s="1">
-        <v>53408</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1</v>
-      </c>
-      <c r="S3" s="1">
-        <v>12455</v>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <v>266600</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1">
-        <v>52</v>
-      </c>
-      <c r="I4" s="1">
-        <v>523090</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="1">
-        <v>2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>29055</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1</v>
-      </c>
-      <c r="S4" s="1">
-        <v>13239</v>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>70</v>
-      </c>
-      <c r="D5" s="1">
-        <v>706621</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1">
-        <v>53</v>
-      </c>
-      <c r="I5" s="1">
-        <v>532164</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="1">
-        <v>10</v>
-      </c>
-      <c r="N5" s="1">
-        <v>107277</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R5" s="1">
-        <v>2</v>
-      </c>
-      <c r="S5" s="1">
-        <v>24115</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>928</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>689</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3984</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2">
+        <v>3766</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>21</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>597</v>
-      </c>
-      <c r="N6" s="1">
-        <v>5978384</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R6" s="1">
-        <v>118</v>
-      </c>
-      <c r="S6" s="1">
-        <v>1187924</v>
-      </c>
+      <c r="H6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>69</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>718</v>
-      </c>
-      <c r="D7" s="1">
-        <v>7188978</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1">
-        <v>231</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2310581</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="1">
-        <v>239</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2393239</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R7" s="1">
-        <v>121</v>
-      </c>
-      <c r="S7" s="1">
-        <v>1212821</v>
-      </c>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>91</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>57</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>181</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>820</v>
-      </c>
-      <c r="D8" s="1">
-        <v>8209131</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <v>423</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4238244</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="1">
-        <v>542</v>
-      </c>
-      <c r="N8" s="1">
-        <v>5428451</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R8" s="1">
-        <v>123</v>
-      </c>
-      <c r="S8" s="1">
-        <v>1233889</v>
-      </c>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1146</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4">
+        <v>991</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="2">
+        <v>5008</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6291</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7">
+        <v>7933</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4">
+        <v>515</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="2">
+        <v>15813</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>9171</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2842</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="2">
+        <v>23099</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>7</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>744690</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <v>30095</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>19294</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2099740</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>35470</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>20408</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1897569</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="2">
+        <v>11</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>68144433</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>55233</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2">
+        <v>49414</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>136593961</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>71640</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2">
+        <v>68456</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="2">
+        <v>192983040</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F3:F5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="K1:N1"/>
+  <mergeCells count="24">
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="P15:P17"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="K3:K5"/>
     <mergeCell ref="K6:K8"/>
-    <mergeCell ref="K3:K5"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="K15:K17"/>
     <mergeCell ref="P3:P5"/>
     <mergeCell ref="P6:P8"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="F3:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Анализ.xlsx
+++ b/Анализ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\term_6\theory_algorithms\lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Study\theory_algorithm\lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A3112E-D30D-47B2-B319-8431E714B5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC79E9-E302-4A3D-BEAD-C0D43A5D792B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3780" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -134,10 +134,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -263,6 +263,64 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="ru-RU"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>Лист1!$B$2:$F$2</c:f>
@@ -3042,8 +3100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="114" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3055,23 +3113,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -3118,38 +3176,38 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>17</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>85</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>178</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <v>309</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <v>2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>9</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>38</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>98</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <v>196</v>
       </c>
       <c r="N3" s="1"/>
@@ -3158,38 +3216,38 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>67</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>155</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <v>251</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>1</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>59</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>184</v>
       </c>
       <c r="N4" s="1"/>
@@ -3198,38 +3256,38 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>0</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <v>0</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="5">
         <v>0</v>
       </c>
       <c r="N5" s="1"/>
@@ -3256,23 +3314,23 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -3329,38 +3387,38 @@
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>194</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>4731</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>18927</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>405492</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <v>1286173</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>63</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>1205</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>6522</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>115984</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>562479</v>
       </c>
       <c r="N9" s="2"/>
@@ -3374,38 +3432,38 @@
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>180</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>3903</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>15112</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>349044</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <v>1184968</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>59</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <v>1189</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>6301</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <v>113151</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>561193</v>
       </c>
       <c r="N10" s="2"/>
@@ -3419,38 +3477,38 @@
       <c r="A11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>63</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>1547</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>6242</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>195485</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <v>921564</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="5">
         <v>30</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <v>994</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <v>6116</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <v>110997</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <v>541511</v>
       </c>
       <c r="N11" s="2"/>
